--- a/URS/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
+++ b/URS/DbLayouts/L2-業務作業/FacCaseAppl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34685F4-90E0-48D5-B1F1-A474AEDD0306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BEBF74-0743-4A22-9D45-EB998C33F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>備註說明</t>
   </si>
@@ -147,19 +147,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LastUpdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ApplNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,16 +410,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>案件編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵審系統案號(eLoan案件編號)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CreditSysNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>案件編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徵審系統案號(eLoan案件編號)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>CreditSysNoFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditSysNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplDate asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯貸案編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyndNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syndNoEq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SyndNo = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -609,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +718,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1047,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1065,12 +1096,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>35</v>
@@ -1080,10 +1111,10 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>32</v>
@@ -1093,12 +1124,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>33</v>
@@ -1108,40 +1139,40 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1149,10 +1180,10 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="12"/>
       <c r="D7" s="4"/>
       <c r="E7" s="13"/>
@@ -1160,10 +1191,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="15"/>
@@ -1198,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1213,17 +1244,17 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
-        <f t="shared" ref="A11:A36" si="0">A10+1</f>
+        <f t="shared" ref="A11:A37" si="0">A10+1</f>
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="19">
         <v>32</v>
@@ -1236,13 +1267,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="19">
         <v>8</v>
@@ -1251,24 +1282,24 @@
     </row>
     <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>4</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="19">
         <v>7</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1277,38 +1308,35 @@
         <v>5</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="19">
+        <v>6</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="19">
         <v>3</v>
-      </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="19">
-        <v>16</v>
-      </c>
-      <c r="F15" s="19">
-        <v>2</v>
       </c>
       <c r="G15" s="21"/>
     </row>
@@ -1318,77 +1346,80 @@
         <v>7</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="19">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="19">
+        <v>6</v>
+      </c>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="19">
-        <v>5</v>
-      </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="19">
-        <v>6</v>
-      </c>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="273" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="19">
         <v>1</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="19">
-        <v>6</v>
-      </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="24" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
@@ -1396,13 +1427,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="19">
         <v>6</v>
@@ -1415,13 +1446,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="19">
         <v>6</v>
@@ -1434,13 +1465,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="19">
         <v>6</v>
@@ -1453,13 +1484,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="19">
         <v>6</v>
@@ -1472,13 +1503,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" s="19">
         <v>6</v>
@@ -1487,79 +1518,79 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>16</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" s="19">
         <v>6</v>
       </c>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="19">
+        <v>6</v>
+      </c>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="19">
+      <c r="D27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="19">
         <v>1</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="20" t="s">
+      <c r="G27" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="19">
+      <c r="D28" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="19">
         <v>8</v>
-      </c>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="19">
-        <v>32</v>
       </c>
       <c r="G28" s="21"/>
     </row>
@@ -1569,40 +1600,37 @@
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E29" s="19">
+        <v>32</v>
+      </c>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="19">
         <v>4</v>
       </c>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="25">
-        <v>1</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25" t="s">
-        <v>93</v>
-      </c>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
@@ -1610,20 +1638,20 @@
         <v>22</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" s="25">
         <v>1</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1632,57 +1660,60 @@
         <v>23</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" s="25">
         <v>1</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="25">
+        <v>1</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="19">
+      <c r="D34" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="19">
         <v>8</v>
-      </c>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="19">
-        <v>6</v>
       </c>
       <c r="G34" s="21"/>
     </row>
@@ -1692,37 +1723,56 @@
         <v>26</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C35" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="19">
+        <v>6</v>
+      </c>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="19">
+      <c r="D36" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="19">
         <v>8</v>
       </c>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="19">
+      <c r="D37" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="19">
         <v>6</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1743,11 +1793,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1771,46 +1821,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
